--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-D-L.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-D-L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F53B9B3-AA10-4341-85C7-7C6D73C5DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A3D7E-3F53-4F67-8E51-D5C38059810B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="LIMA" sheetId="9" r:id="rId8"/>
     <sheet name="LIMON AGRIO" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -126,6 +121,9 @@
   <si>
     <t>Замеченные и исправленные опечатки выделены синим фоном</t>
   </si>
+  <si>
+    <t>Promedio 1927/29</t>
+  </si>
 </sst>
 </file>
 
@@ -200,10 +198,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,14 +522,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -550,12 +548,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -563,17 +561,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -607,7 +605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -637,7 +635,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -659,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -681,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -703,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -725,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -747,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -772,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -794,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -816,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -838,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -860,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -882,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -907,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -929,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -951,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -973,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -995,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1378,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1469,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1535,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1648,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1874,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2031,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2144,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -2214,12 +2212,12 @@
       <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2227,17 +2225,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2301,7 +2299,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2502,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2546,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2728,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -2772,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -2907,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3008,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3040,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3072,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3136,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3416,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3469,7 +3467,7 @@
       <c r="F48" s="3">
         <v>211</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <v>21</v>
       </c>
       <c r="H48" s="3"/>
@@ -3488,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3522,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3556,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -3595,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -3667,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -3735,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -3808,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -3842,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -3876,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -3944,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -3978,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +4015,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4053,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4123,7 +4121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4159,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -4234,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4306,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4342,13 +4340,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4364,16 +4362,16 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4381,17 +4379,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4455,7 +4453,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4477,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4531,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -4595,9 +4593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
         <v>1582</v>
@@ -4630,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -4766,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -4800,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -4905,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -4939,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5007,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5146,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5180,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5214,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -5251,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5319,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5385,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -5454,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5488,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5522,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5556,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -5590,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5693,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5727,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5791,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5825,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5862,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5896,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5930,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5966,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6000,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6034,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6073,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6109,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6145,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6179,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6213,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6247,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6286,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6322,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6358,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6430,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6466,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -6505,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6541,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -6613,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -6649,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -6685,14 +6683,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="8">
         <v>24214</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>7779</v>
       </c>
       <c r="D69" s="8">
@@ -6725,7 +6723,7 @@
       </c>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -6761,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -6795,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -6831,13 +6829,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -6857,12 +6855,12 @@
       <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6870,17 +6868,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -6914,7 +6912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -6944,7 +6942,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6966,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6988,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7010,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7032,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7054,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -7079,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7145,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7189,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -7214,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7236,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7258,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7302,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -7349,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7371,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7393,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7415,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7459,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7506,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7550,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7572,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7594,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -7619,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7641,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7663,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7685,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7707,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7729,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7754,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7776,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7798,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7820,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -7842,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -7864,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -7889,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -7921,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -7953,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -7985,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8017,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8049,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -8084,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8116,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8148,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8180,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8244,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -8279,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8311,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8343,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8375,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8407,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8439,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8474,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8506,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8570,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8602,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8634,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8701,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8733,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8765,13 +8763,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8791,12 +8789,12 @@
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8804,17 +8802,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8848,7 +8846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8878,7 +8876,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8900,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -8922,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -8944,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -8966,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -8988,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9013,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9035,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9057,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9079,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1935</v>
       </c>
@@ -9165,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1936</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1937</v>
       </c>
@@ -9229,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1938</v>
       </c>
@@ -9261,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1939</v>
       </c>
@@ -9293,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
@@ -9328,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1940</v>
       </c>
@@ -9360,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1941</v>
       </c>
@@ -9392,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1942</v>
       </c>
@@ -9424,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1943</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1944</v>
       </c>
@@ -9488,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
@@ -9523,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1945</v>
       </c>
@@ -9555,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1946</v>
       </c>
@@ -9587,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1947</v>
       </c>
@@ -9619,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1948</v>
       </c>
@@ -9651,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1949</v>
       </c>
@@ -9683,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -9718,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1950</v>
       </c>
@@ -9750,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1951</v>
       </c>
@@ -9782,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1952</v>
       </c>
@@ -9814,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1953</v>
       </c>
@@ -9846,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1954</v>
       </c>
@@ -9878,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -9913,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1955</v>
       </c>
@@ -9945,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1956</v>
       </c>
@@ -9977,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1957</v>
       </c>
@@ -10009,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1958</v>
       </c>
@@ -10041,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1959</v>
       </c>
@@ -10075,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -10112,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1960</v>
       </c>
@@ -10146,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1961</v>
       </c>
@@ -10180,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1962</v>
       </c>
@@ -10214,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1963</v>
       </c>
@@ -10248,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1964</v>
       </c>
@@ -10282,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
@@ -10319,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1965</v>
       </c>
@@ -10353,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1966</v>
       </c>
@@ -10387,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1967</v>
       </c>
@@ -10421,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1968</v>
       </c>
@@ -10455,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1969</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
@@ -10526,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1970</v>
       </c>
@@ -10560,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1971</v>
       </c>
@@ -10594,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1972</v>
       </c>
@@ -10628,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1973</v>
       </c>
@@ -10662,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1974</v>
       </c>
@@ -10696,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -10733,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -10767,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -10801,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1977</v>
       </c>
@@ -10835,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1978</v>
       </c>
@@ -10869,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1979</v>
       </c>
@@ -10903,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
@@ -10940,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1980</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1981</v>
       </c>
@@ -11008,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1982</v>
       </c>
@@ -11042,13 +11040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
   </sheetData>
@@ -11064,16 +11062,16 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R44" sqref="R44"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11081,17 +11079,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11125,7 +11123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11155,7 +11153,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11177,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11199,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11231,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11263,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11295,9 +11293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
         <v>568</v>
@@ -11330,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11362,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11394,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11458,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11490,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11525,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11557,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11589,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11621,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11653,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11685,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11720,7 +11718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -11752,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -11784,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -11816,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -11848,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -11880,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -11915,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -11947,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -11979,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12011,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12043,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12075,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12110,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12142,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12174,7 +12172,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12206,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12238,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12270,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12305,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12337,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12369,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12401,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12433,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12467,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -12504,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12538,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12574,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12608,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12642,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12676,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12715,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12749,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12785,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12819,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12853,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12887,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -12924,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12958,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -12992,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13026,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13060,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13094,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13131,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13167,7 +13165,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13201,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13237,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13273,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13309,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13348,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13384,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13418,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13454,13 +13452,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13480,12 +13478,12 @@
       <selection pane="bottomLeft" activeCell="Q57" sqref="Q57:X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13493,17 +13491,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13537,7 +13535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13567,7 +13565,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13589,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13611,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13633,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13655,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13677,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13702,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13724,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13746,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13768,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13790,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13812,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13837,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13859,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13881,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13903,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -13925,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -13947,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -13972,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -13994,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14016,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14038,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14060,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14082,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14107,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14129,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14151,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14173,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14195,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14217,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14242,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14264,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14286,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14308,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14330,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14352,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14377,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14399,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14421,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14443,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14465,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14487,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14512,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14546,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14578,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14610,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14642,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14674,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -14711,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14745,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14779,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -14813,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -14849,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -14883,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -14904,7 +14902,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>27052</v>
       </c>
       <c r="J57" s="9">
@@ -14928,7 +14926,7 @@
       <c r="V57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -14962,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -14998,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15034,7 +15032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15070,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15106,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -15145,7 +15143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15177,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15209,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15241,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15273,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15305,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15340,7 +15338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15372,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15406,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15440,13 +15438,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15462,16 +15460,16 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15479,17 +15477,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15523,7 +15521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15553,7 +15551,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15575,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15597,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15629,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15661,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15693,9 +15691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
         <v>3141</v>
@@ -15728,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15762,7 +15760,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15796,7 +15794,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15830,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15864,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15898,7 +15896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -15935,7 +15933,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -15969,7 +15967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16003,7 +16001,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16037,7 +16035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16071,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16105,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16142,7 +16140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16176,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16210,7 +16208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16244,7 +16242,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16278,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16312,7 +16310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16349,7 +16347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16383,7 +16381,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16417,7 +16415,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16451,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16485,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16519,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16556,7 +16554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16590,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16624,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16658,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16692,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16726,7 +16724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16763,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16797,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16831,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16865,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16899,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16935,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16974,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -17010,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -17046,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -17082,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -17118,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17154,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17193,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17229,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17265,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17301,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17337,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17373,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17412,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17448,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17484,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17520,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17556,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17592,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -17631,7 +17629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17667,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17703,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17739,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17775,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17811,7 +17809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17850,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17886,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17922,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17958,13 +17956,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-D-L.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-D-L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A3D7E-3F53-4F67-8E51-D5C38059810B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD685B78-B286-4748-8CC3-62EE0DD455E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="36870" windowHeight="21360" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="LIMA" sheetId="9" r:id="rId8"/>
     <sheet name="LIMON AGRIO" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -181,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -202,6 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,14 +528,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -548,12 +554,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -571,7 +577,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -605,7 +611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -635,7 +641,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -657,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2186,13 +2192,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -2208,16 +2214,16 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2235,7 +2241,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2305,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3554,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4328,8 +4334,8 @@
       <c r="I72" s="3">
         <v>676</v>
       </c>
-      <c r="J72" s="6">
-        <v>0.09</v>
+      <c r="J72" s="14">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="2"/>
@@ -4340,13 +4346,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4366,12 +4372,12 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4389,7 +4395,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4453,7 +4459,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4497,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -4696,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -4764,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5283,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5725,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6071,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6107,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6177,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6245,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6428,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6575,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -6647,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -6683,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -6723,7 +6729,7 @@
       </c>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -6793,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -6829,13 +6835,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -6855,12 +6861,12 @@
       <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6878,7 +6884,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -6912,7 +6918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -6942,7 +6948,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6986,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7052,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7121,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7278,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7300,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7322,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7369,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7391,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7435,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7457,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -7482,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7548,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7570,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7592,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -7617,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7774,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8047,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8114,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8210,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8242,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -8277,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8309,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8341,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8373,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8536,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8667,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8731,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8763,13 +8769,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8789,12 +8795,12 @@
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8812,7 +8818,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8876,7 +8882,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -8942,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -8964,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9011,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9131,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>1935</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1936</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1937</v>
       </c>
@@ -9227,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1938</v>
       </c>
@@ -9259,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1939</v>
       </c>
@@ -9291,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
@@ -9326,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>1940</v>
       </c>
@@ -9358,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1941</v>
       </c>
@@ -9390,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1942</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1943</v>
       </c>
@@ -9454,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1944</v>
       </c>
@@ -9486,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>1945</v>
       </c>
@@ -9553,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1946</v>
       </c>
@@ -9585,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1947</v>
       </c>
@@ -9617,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1948</v>
       </c>
@@ -9649,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1949</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -9716,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>1950</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1951</v>
       </c>
@@ -9780,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1952</v>
       </c>
@@ -9812,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1953</v>
       </c>
@@ -9844,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1954</v>
       </c>
@@ -9876,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>1955</v>
       </c>
@@ -9943,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1956</v>
       </c>
@@ -9975,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1957</v>
       </c>
@@ -10007,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1958</v>
       </c>
@@ -10039,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1959</v>
       </c>
@@ -10073,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -10110,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>1960</v>
       </c>
@@ -10144,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1961</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1962</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1963</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1964</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
@@ -10317,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>1965</v>
       </c>
@@ -10351,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1966</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1967</v>
       </c>
@@ -10419,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1968</v>
       </c>
@@ -10453,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1969</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
@@ -10524,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>1970</v>
       </c>
@@ -10558,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1971</v>
       </c>
@@ -10592,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1972</v>
       </c>
@@ -10626,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1973</v>
       </c>
@@ -10660,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1974</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -10731,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -10765,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1977</v>
       </c>
@@ -10833,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1978</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1979</v>
       </c>
@@ -10901,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
@@ -10938,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>1980</v>
       </c>
@@ -10972,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1981</v>
       </c>
@@ -11006,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1982</v>
       </c>
@@ -11040,13 +11046,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
   </sheetData>
@@ -11066,12 +11072,12 @@
       <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11089,7 +11095,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11123,7 +11129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11153,7 +11159,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11175,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11197,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11229,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11261,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11293,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -11328,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11360,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11392,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11424,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11456,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11488,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11523,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11555,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11587,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11619,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11651,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11683,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11718,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -11750,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -11782,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -11814,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -11878,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -11945,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12009,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12041,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12108,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12140,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12172,7 +12178,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12204,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12236,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12268,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12303,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12335,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12367,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12399,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12465,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -12502,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12536,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12572,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12606,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12640,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12674,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12713,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12783,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12817,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12851,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12885,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -12922,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12956,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -12990,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13024,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13058,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13092,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13129,7 +13135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13165,7 +13171,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13199,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13271,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13307,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13346,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13382,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13416,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13452,13 +13458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13473,17 +13479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B476AFD9-492F-4541-9A8F-FA5A8A890C64}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57:X57"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13501,7 +13507,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13535,7 +13541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13565,7 +13571,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13609,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13631,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13653,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13675,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13700,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13722,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13744,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13766,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13788,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13810,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13835,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13857,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13879,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13901,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -13923,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -13945,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -13970,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -13992,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14014,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14036,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14058,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14105,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14127,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14149,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14171,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14193,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14215,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14240,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14262,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14284,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14306,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14328,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14375,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14397,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14419,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14441,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14463,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14485,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14510,7 +14516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14544,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14576,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14608,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14640,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14672,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -14709,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>26582</v>
       </c>
       <c r="J52" s="6">
-        <v>0.67300000000000004</v>
+        <v>0.623</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="0"/>
@@ -14743,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -14811,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -14847,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -14881,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -14926,7 +14932,7 @@
       <c r="V57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -14960,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -14996,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15032,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15068,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15104,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -15143,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15175,7 +15181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15207,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15239,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15271,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15303,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15338,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15404,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15438,13 +15444,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15459,17 +15465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA33D9-3BF9-43A4-954D-0FD2E4B1FCAB}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15487,7 +15493,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15521,7 +15527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15551,7 +15557,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15573,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15595,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15627,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15659,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15691,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -15726,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15760,7 +15766,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15794,7 +15800,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15828,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15862,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15896,7 +15902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -15933,7 +15939,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16001,7 +16007,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16035,7 +16041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16069,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16103,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16140,7 +16146,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16174,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16208,7 +16214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16242,7 +16248,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16276,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16310,7 +16316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16347,7 +16353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16381,7 +16387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16415,7 +16421,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16449,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16483,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16517,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16554,7 +16560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16588,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16622,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16656,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16690,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16724,7 +16730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16761,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16795,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16829,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16863,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16897,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16933,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16972,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -17008,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -17044,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -17080,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -17116,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17152,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17191,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17227,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17263,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17299,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17335,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17371,7 +17377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17410,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17482,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17518,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17554,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -17629,7 +17635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17665,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17701,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17737,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17773,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17809,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17848,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17884,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17920,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17956,13 +17962,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-D-L.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-D-L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD685B78-B286-4748-8CC3-62EE0DD455E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C978BF-303C-4C63-A063-8335DF3A1FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="36870" windowHeight="21360" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="2" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +567,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2211,11 +2211,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25DF209-9EFC-470C-AF83-D401C67B4959}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2231,10 +2231,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4078,8 +4078,8 @@
         <v>21</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3">
-        <v>609</v>
+      <c r="I65" s="12">
+        <v>588</v>
       </c>
       <c r="J65" s="6">
         <v>8.9999999999999993E-3</v>
@@ -4090,10 +4090,10 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4112,8 +4112,8 @@
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3">
-        <v>1578</v>
+      <c r="I66" s="12">
+        <v>1622</v>
       </c>
       <c r="J66" s="6">
         <v>2.4E-2</v>
@@ -4124,10 +4124,10 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -4237,8 +4237,13 @@
         <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4334,7 +4339,7 @@
       <c r="I72" s="3">
         <v>676</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M72" s="2">
@@ -4346,13 +4351,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4385,10 +4390,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6874,10 +6879,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8808,10 +8813,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11085,10 +11090,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -13479,7 +13484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B476AFD9-492F-4541-9A8F-FA5A8A890C64}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
@@ -13497,10 +13502,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -15483,10 +15488,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
